--- a/ONCHO/OEM/oncho_1_site.xlsx
+++ b/ONCHO/OEM/oncho_1_site.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\generic-espen-collect-form\ONCHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\ONCHO\OEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807236F6-7E9F-4192-B66D-5262AED8F988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>form_title</t>
   </si>
@@ -356,12 +357,18 @@
   </si>
   <si>
     <t>O código de cluster repetido deve ser o mesmo</t>
+  </si>
+  <si>
+    <t>c_region</t>
+  </si>
+  <si>
+    <t>Select the region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -861,14 +868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -994,13 +1001,13 @@
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -1026,29 +1033,29 @@
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="11"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="17"/>
       <c r="P4" s="11" t="s">
         <v>49</v>
@@ -1056,38 +1063,30 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="11"/>
       <c r="O5" s="17"/>
       <c r="P5" s="11" t="s">
@@ -1100,70 +1099,74 @@
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>58</v>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="17"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="17"/>
       <c r="P6" s="11" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="22"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="J7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="11" t="s">
@@ -1172,121 +1175,131 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>62</v>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>83</v>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>23</v>
+        <v>83</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="13"/>
@@ -1302,16 +1315,18 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="H12" s="30"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1325,13 +1340,28 @@
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1343,13 +1373,22 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1494,7 +1533,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
